--- a/data/Excel/JFT_and_BOBO_stats.xlsx
+++ b/data/Excel/JFT_and_BOBO_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -840,27 +840,47 @@
           <t>murza</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v/>
-      </c>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="O8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1049,16 +1069,16 @@
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
@@ -1091,10 +1111,10 @@
         </is>
       </c>
       <c r="O11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1119,16 +1139,16 @@
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
@@ -1193,16 +1213,16 @@
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
@@ -1267,16 +1287,16 @@
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
@@ -1341,16 +1361,16 @@
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
